--- a/Code/Results/Cases/Case_4_139/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_139/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.55292316960435</v>
+        <v>15.98786064435238</v>
       </c>
       <c r="C2">
-        <v>14.42621117078043</v>
+        <v>9.961696387662483</v>
       </c>
       <c r="D2">
-        <v>7.137254625291692</v>
+        <v>5.995628620523291</v>
       </c>
       <c r="E2">
-        <v>7.197659274964958</v>
+        <v>11.65046834840988</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.082894256622848</v>
+        <v>3.65322623281584</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.98541792948945</v>
+        <v>24.37985028251085</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.321996702656686</v>
+        <v>10.11610441137285</v>
       </c>
       <c r="M2">
-        <v>12.45982052382059</v>
+        <v>15.12902099349913</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.21335448467619</v>
+        <v>25.07308721050791</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.0997656718664</v>
+        <v>15.45479023350826</v>
       </c>
       <c r="C3">
-        <v>13.66638798638756</v>
+        <v>9.599675317404161</v>
       </c>
       <c r="D3">
-        <v>6.639503919445364</v>
+        <v>5.879040245493583</v>
       </c>
       <c r="E3">
-        <v>7.291488369138685</v>
+        <v>11.68528386554583</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.089558114991885</v>
+        <v>3.655718096751454</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.19625644893891</v>
+        <v>24.51574055177545</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.241102413110458</v>
+        <v>10.12597274198202</v>
       </c>
       <c r="M3">
-        <v>11.84249027744663</v>
+        <v>15.01538796541074</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.02770866575541</v>
+        <v>25.15265549392466</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.15536409396402</v>
+        <v>15.11967334874031</v>
       </c>
       <c r="C4">
-        <v>13.17834996833617</v>
+        <v>9.368705870796774</v>
       </c>
       <c r="D4">
-        <v>6.317183406711338</v>
+        <v>5.808098790139577</v>
       </c>
       <c r="E4">
-        <v>7.351002207088074</v>
+        <v>11.70780385855273</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.093768211651402</v>
+        <v>3.657329004553973</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.34319147899656</v>
+        <v>24.60519621182906</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.194166004565065</v>
+        <v>10.13349807176303</v>
       </c>
       <c r="M4">
-        <v>11.45103315839479</v>
+        <v>14.94728454412408</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.93444425065584</v>
+        <v>25.20873593735106</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.75730648414357</v>
+        <v>14.98135023465693</v>
       </c>
       <c r="C5">
-        <v>12.97416070344226</v>
+        <v>9.272490457102894</v>
       </c>
       <c r="D5">
-        <v>6.195301848663106</v>
+        <v>5.779395672162665</v>
       </c>
       <c r="E5">
-        <v>7.375740773890155</v>
+        <v>11.71726924679138</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.095514599584754</v>
+        <v>3.658005871253338</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.40721107959618</v>
+        <v>24.64316043027555</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.175728334848415</v>
+        <v>10.13693366897246</v>
       </c>
       <c r="M5">
-        <v>11.28856668292805</v>
+        <v>14.9199737980571</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.90147741204163</v>
+        <v>25.23339807946186</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.69040908188029</v>
+        <v>14.95828176506716</v>
       </c>
       <c r="C6">
-        <v>12.93993789731285</v>
+        <v>9.25639038748761</v>
       </c>
       <c r="D6">
-        <v>6.17603105167878</v>
+        <v>5.774643282633908</v>
       </c>
       <c r="E6">
-        <v>7.379878182883124</v>
+        <v>11.71885840572322</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.095806469436989</v>
+        <v>3.658119499070779</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.41808462694046</v>
+        <v>24.6495554901809</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.172708442203223</v>
+        <v>10.13752643902253</v>
       </c>
       <c r="M6">
-        <v>11.26141721528585</v>
+        <v>14.91546620831558</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.8963023357362</v>
+        <v>25.23760222331737</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.15004934053242</v>
+        <v>15.11781472020784</v>
       </c>
       <c r="C7">
-        <v>13.1756175518468</v>
+        <v>9.367416624508513</v>
       </c>
       <c r="D7">
-        <v>6.315372043954906</v>
+        <v>5.807710796893043</v>
       </c>
       <c r="E7">
-        <v>7.351333861293094</v>
+        <v>11.707930343594</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.093791638364201</v>
+        <v>3.657338050291463</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.3440384183342</v>
+        <v>24.60570209943256</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.193914554908383</v>
+        <v>10.13354291117073</v>
       </c>
       <c r="M7">
-        <v>11.44885374333542</v>
+        <v>14.94691440310883</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.93397948281936</v>
+        <v>25.20906122625679</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.06264396680657</v>
+        <v>15.80579543965894</v>
       </c>
       <c r="C8">
-        <v>14.16873772603167</v>
+        <v>9.8387258132861</v>
       </c>
       <c r="D8">
-        <v>6.969071747490641</v>
+        <v>5.955321570765614</v>
       </c>
       <c r="E8">
-        <v>7.229621505812194</v>
+        <v>11.6622360019664</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.085167957780063</v>
+        <v>3.654068678757163</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.05432936002727</v>
+        <v>24.4254542392413</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.293538669626418</v>
+        <v>10.11920290938416</v>
       </c>
       <c r="M8">
-        <v>12.2496379816108</v>
+        <v>15.08950794929404</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.14494417599251</v>
+        <v>25.09901811689219</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.40364410787127</v>
+        <v>17.08491650633286</v>
       </c>
       <c r="C9">
-        <v>15.94260418013209</v>
+        <v>10.69056312661674</v>
       </c>
       <c r="D9">
-        <v>8.120337997586802</v>
+        <v>6.247986451092766</v>
       </c>
       <c r="E9">
-        <v>7.005668602093048</v>
+        <v>11.58166040827935</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.069150993800857</v>
+        <v>3.64829622630393</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.63720554505415</v>
+        <v>24.11988249371866</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.510459210786122</v>
+        <v>10.10270073093371</v>
       </c>
       <c r="M9">
-        <v>13.86498834978117</v>
+        <v>15.38134440892687</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.72994597402916</v>
+        <v>24.94088975133822</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.61469546631123</v>
+        <v>17.97246992059128</v>
       </c>
       <c r="C10">
-        <v>17.13750669484038</v>
+        <v>11.26829737487886</v>
       </c>
       <c r="D10">
-        <v>8.889232723259818</v>
+        <v>6.462465827408871</v>
       </c>
       <c r="E10">
-        <v>6.849567592419692</v>
+        <v>11.52791187538058</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.057859771176864</v>
+        <v>3.644440312957157</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.44115161966584</v>
+        <v>23.9247705782477</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.682782491600073</v>
+        <v>10.09763728174643</v>
       </c>
       <c r="M10">
-        <v>15.06880002089644</v>
+        <v>15.60179783037752</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.2724637271811</v>
+        <v>24.86030190007125</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.56906456792797</v>
+        <v>18.3632216515337</v>
       </c>
       <c r="C11">
-        <v>17.65741253757945</v>
+        <v>11.52000875627908</v>
       </c>
       <c r="D11">
-        <v>9.222938869153358</v>
+        <v>6.559420552482326</v>
       </c>
       <c r="E11">
-        <v>6.780261143468763</v>
+        <v>11.50463205135592</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.052810036927342</v>
+        <v>3.642768863422949</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.38031443708439</v>
+        <v>23.84243492682277</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.763948036423821</v>
+        <v>10.09686075700018</v>
       </c>
       <c r="M11">
-        <v>15.5898067957529</v>
+        <v>15.7030932262767</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.54522602203525</v>
+        <v>24.83145132074812</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.92318012175136</v>
+        <v>18.50920040160874</v>
       </c>
       <c r="C12">
-        <v>17.85089064621322</v>
+        <v>11.61368277814033</v>
       </c>
       <c r="D12">
-        <v>9.34704814726074</v>
+        <v>6.596007443696447</v>
       </c>
       <c r="E12">
-        <v>6.754251149475908</v>
+        <v>11.49598404196276</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.050908815364789</v>
+        <v>3.642147740569034</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.36174230848596</v>
+        <v>23.81218391742416</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.795079139995845</v>
+        <v>10.09678558934846</v>
       </c>
       <c r="M12">
-        <v>15.78332660530244</v>
+        <v>15.74157027951695</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.65235310359072</v>
+        <v>24.82165527337303</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.8472370353441</v>
+        <v>18.4778515662171</v>
       </c>
       <c r="C13">
-        <v>17.80937264298502</v>
+        <v>11.59358218089214</v>
       </c>
       <c r="D13">
-        <v>9.320418548378376</v>
+        <v>6.58813409242177</v>
       </c>
       <c r="E13">
-        <v>6.759842590818862</v>
+        <v>11.49783910588814</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.051317812700396</v>
+        <v>3.642280985835169</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.36553714781648</v>
+        <v>23.81865768400059</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.788356956224299</v>
+        <v>10.09679205469718</v>
       </c>
       <c r="M13">
-        <v>15.74181560264397</v>
+        <v>15.73327870231082</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.62910910646264</v>
+        <v>24.823714722364</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.59834315685457</v>
+        <v>18.37527194482076</v>
       </c>
       <c r="C14">
-        <v>17.67339814970483</v>
+        <v>11.52774856094816</v>
       </c>
       <c r="D14">
-        <v>9.233194355689477</v>
+        <v>6.562433357918386</v>
       </c>
       <c r="E14">
-        <v>6.778116639413717</v>
+        <v>11.50391722083731</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.052653410586272</v>
+        <v>3.642717526761683</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.37869470496648</v>
+        <v>23.83992754043042</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.766501301781795</v>
+        <v>10.09685019028582</v>
       </c>
       <c r="M14">
-        <v>15.60580310252713</v>
+        <v>15.70625653022305</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.55396194725266</v>
+        <v>24.83062273359638</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.44494347823441</v>
+        <v>18.31217640404121</v>
       </c>
       <c r="C15">
-        <v>17.58966753900143</v>
+        <v>11.4872082374511</v>
       </c>
       <c r="D15">
-        <v>9.179474573644358</v>
+        <v>6.546673138221331</v>
       </c>
       <c r="E15">
-        <v>6.789340293329992</v>
+        <v>11.50766203916986</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.053472890272329</v>
+        <v>3.642986457993187</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.38734750756943</v>
+        <v>23.85307688616279</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.753165496869711</v>
+        <v>10.09691428389443</v>
       </c>
       <c r="M15">
-        <v>15.52200168370494</v>
+        <v>15.68971933699405</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.50843489671754</v>
+        <v>24.83500129503352</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.55129961574153</v>
+        <v>17.94666109771756</v>
       </c>
       <c r="C16">
-        <v>17.10305348644766</v>
+        <v>11.25161985239027</v>
       </c>
       <c r="D16">
-        <v>8.867105336983444</v>
+        <v>6.456113839469967</v>
       </c>
       <c r="E16">
-        <v>6.854130367053629</v>
+        <v>11.52945675601358</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.058191405374375</v>
+        <v>3.644551203381863</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.44573074744106</v>
+        <v>23.93028099176285</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.677533644237353</v>
+        <v>10.09771869798338</v>
       </c>
       <c r="M16">
-        <v>15.0342198519919</v>
+        <v>15.59519599373305</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.25516967378436</v>
+        <v>24.86234502811605</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.98998076200712</v>
+        <v>17.71900880308203</v>
       </c>
       <c r="C17">
-        <v>16.7984694059819</v>
+        <v>11.10421468458124</v>
       </c>
       <c r="D17">
-        <v>8.671397991062346</v>
+        <v>6.400372800471558</v>
       </c>
       <c r="E17">
-        <v>6.89430642991843</v>
+        <v>11.54312638144559</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.061107262953344</v>
+        <v>3.645532241553826</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.48907849741823</v>
+        <v>23.97929098192538</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.631843843942161</v>
+        <v>10.09860279172828</v>
       </c>
       <c r="M17">
-        <v>14.72820085971847</v>
+        <v>15.53744880627023</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.10652731767306</v>
+        <v>24.88112416453534</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.66227515358737</v>
+        <v>17.58685180394835</v>
       </c>
       <c r="C18">
-        <v>16.62105245922115</v>
+        <v>11.01838844032548</v>
       </c>
       <c r="D18">
-        <v>8.557316595604863</v>
+        <v>6.368256572065334</v>
       </c>
       <c r="E18">
-        <v>6.917575735332809</v>
+        <v>11.55109902230257</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.062792642151074</v>
+        <v>3.646104289508453</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.51665474960612</v>
+        <v>24.00808441404795</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.605825627973988</v>
+        <v>10.09925506032114</v>
       </c>
       <c r="M18">
-        <v>14.54967832551518</v>
+        <v>15.5043308167658</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.02347087752811</v>
+        <v>24.89266014120671</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.55048328492139</v>
+        <v>17.54190054494454</v>
       </c>
       <c r="C19">
-        <v>16.56059954569336</v>
+        <v>10.98915160949851</v>
       </c>
       <c r="D19">
-        <v>8.518428719319109</v>
+        <v>6.357374284820456</v>
       </c>
       <c r="E19">
-        <v>6.92548229602757</v>
+        <v>11.55381737827006</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.063364743075363</v>
+        <v>3.646299313380195</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.52643412381566</v>
+        <v>24.01793701567855</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.597061317034306</v>
+        <v>10.09950061763652</v>
       </c>
       <c r="M19">
-        <v>14.48880131556044</v>
+        <v>15.49313504496849</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.99576494412918</v>
+        <v>24.89669201792774</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.05023523779141</v>
+        <v>17.74336969876295</v>
       </c>
       <c r="C20">
-        <v>16.83112353350248</v>
+        <v>11.12001449281771</v>
       </c>
       <c r="D20">
-        <v>8.692387870981948</v>
+        <v>6.406312562362876</v>
       </c>
       <c r="E20">
-        <v>6.890013019440887</v>
+        <v>11.5416598233911</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.060796020795546</v>
+        <v>3.64542700354186</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.484187676917</v>
+        <v>23.97401122352495</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.636680581339562</v>
+        <v>10.09849380432254</v>
       </c>
       <c r="M20">
-        <v>14.76103636119408</v>
+        <v>15.54358628062792</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.12209737542532</v>
+        <v>24.87904900732578</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.67164604405908</v>
+        <v>18.40545697961134</v>
       </c>
       <c r="C21">
-        <v>17.71342930571401</v>
+        <v>11.54713044041425</v>
       </c>
       <c r="D21">
-        <v>9.258875062532814</v>
+        <v>6.569986059213504</v>
       </c>
       <c r="E21">
-        <v>6.77274281886602</v>
+        <v>11.50212738996787</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.052260826763256</v>
+        <v>3.642588983846531</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.37470562351936</v>
+        <v>23.83365485550411</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.772910127342853</v>
+        <v>10.09682717976102</v>
       </c>
       <c r="M21">
-        <v>15.64585524923028</v>
+        <v>15.71419058793894</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.57592954120323</v>
+        <v>24.82856299579527</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.68893663217645</v>
+        <v>18.82652116487395</v>
       </c>
       <c r="C22">
-        <v>18.27026646896954</v>
+        <v>11.81667784662421</v>
       </c>
       <c r="D22">
-        <v>9.615972550342775</v>
+        <v>6.676194612325599</v>
       </c>
       <c r="E22">
-        <v>6.697463743869646</v>
+        <v>11.47726693760173</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.046745949340805</v>
+        <v>3.640803034276029</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.32937483957174</v>
+        <v>23.74733334368726</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.864248323983794</v>
+        <v>10.0970134041761</v>
       </c>
       <c r="M22">
-        <v>16.20216571910579</v>
+        <v>15.8263698313622</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.89494888456583</v>
+        <v>24.80215079092499</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.14982912530091</v>
+        <v>18.60289341000153</v>
       </c>
       <c r="C23">
-        <v>17.97487912853921</v>
+        <v>11.67370736768825</v>
       </c>
       <c r="D23">
-        <v>9.426566527898908</v>
+        <v>6.619591325554238</v>
       </c>
       <c r="E23">
-        <v>6.737520342956582</v>
+        <v>11.49044635662605</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.049684061561746</v>
+        <v>3.641749948995544</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.35103616524479</v>
+        <v>23.7929083513909</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.815289444018001</v>
+        <v>10.0967975526048</v>
       </c>
       <c r="M23">
-        <v>15.90724357353487</v>
+        <v>15.76644426461971</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.72259894696274</v>
+        <v>24.81564324872356</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.02300975910397</v>
+        <v>17.73236010501055</v>
       </c>
       <c r="C24">
-        <v>16.81636778990971</v>
+        <v>11.11287476319043</v>
       </c>
       <c r="D24">
-        <v>8.68290322992595</v>
+        <v>6.403627410921155</v>
       </c>
       <c r="E24">
-        <v>6.891953535200619</v>
+        <v>11.54232249977918</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.060936705189622</v>
+        <v>3.645474556609702</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.48639057622283</v>
+        <v>23.97639628082507</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.634493115067658</v>
+        <v>10.09854262895807</v>
       </c>
       <c r="M24">
-        <v>14.74619949637554</v>
+        <v>15.54081127214011</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.11505068467642</v>
+        <v>24.87998488248685</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.54304697069193</v>
+        <v>16.74742625236137</v>
       </c>
       <c r="C25">
-        <v>15.48164675946358</v>
+        <v>10.46831418878282</v>
       </c>
       <c r="D25">
-        <v>7.822603960571622</v>
+        <v>6.168732574883115</v>
       </c>
       <c r="E25">
-        <v>7.064731740960471</v>
+        <v>11.60249714509166</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.073395082385452</v>
+        <v>3.649789889190282</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.73206963569091</v>
+        <v>24.19740069582175</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.449486820991714</v>
+        <v>10.1059231596572</v>
       </c>
       <c r="M25">
-        <v>13.39775838197255</v>
+        <v>15.30123074996484</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.55243494912039</v>
+        <v>24.97744740153568</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_139/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_139/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.98786064435238</v>
+        <v>21.55292316960434</v>
       </c>
       <c r="C2">
-        <v>9.961696387662483</v>
+        <v>14.42621117078061</v>
       </c>
       <c r="D2">
-        <v>5.995628620523291</v>
+        <v>7.137254625291625</v>
       </c>
       <c r="E2">
-        <v>11.65046834840988</v>
+        <v>7.197659274964957</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.65322623281584</v>
+        <v>2.082894256623115</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.37985028251085</v>
+        <v>14.98541792948957</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.11610441137285</v>
+        <v>6.321996702656641</v>
       </c>
       <c r="M2">
-        <v>15.12902099349913</v>
+        <v>12.45982052382058</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.07308721050791</v>
+        <v>17.21335448467628</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.45479023350826</v>
+        <v>20.09976567186635</v>
       </c>
       <c r="C3">
-        <v>9.599675317404161</v>
+        <v>13.66638798638745</v>
       </c>
       <c r="D3">
-        <v>5.879040245493583</v>
+        <v>6.639503919445364</v>
       </c>
       <c r="E3">
-        <v>11.68528386554583</v>
+        <v>7.291488369138685</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.655718096751454</v>
+        <v>2.089558114991751</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.51574055177545</v>
+        <v>15.1962564489391</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.12597274198202</v>
+        <v>6.241102413110402</v>
       </c>
       <c r="M3">
-        <v>15.01538796541074</v>
+        <v>11.84249027744665</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.15265549392466</v>
+        <v>17.02770866575559</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.11967334874031</v>
+        <v>19.15536409396405</v>
       </c>
       <c r="C4">
-        <v>9.368705870796774</v>
+        <v>13.17834996833611</v>
       </c>
       <c r="D4">
-        <v>5.808098790139577</v>
+        <v>6.317183406711378</v>
       </c>
       <c r="E4">
-        <v>11.70780385855273</v>
+        <v>7.351002207087938</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.657329004553973</v>
+        <v>2.093768211651401</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.60519621182906</v>
+        <v>15.34319147899655</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.13349807176303</v>
+        <v>6.194166004565093</v>
       </c>
       <c r="M4">
-        <v>14.94728454412408</v>
+        <v>11.45103315839476</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.20873593735106</v>
+        <v>16.93444425065585</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.98135023465693</v>
+        <v>18.7573064841436</v>
       </c>
       <c r="C5">
-        <v>9.272490457102894</v>
+        <v>12.97416070344208</v>
       </c>
       <c r="D5">
-        <v>5.779395672162665</v>
+        <v>6.195301848663055</v>
       </c>
       <c r="E5">
-        <v>11.71726924679138</v>
+        <v>7.375740773890222</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.658005871253338</v>
+        <v>2.095514599584485</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.64316043027555</v>
+        <v>15.40721107959613</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.13693366897246</v>
+        <v>6.175728334848467</v>
       </c>
       <c r="M5">
-        <v>14.9199737980571</v>
+        <v>11.28856668292807</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.23339807946186</v>
+        <v>16.90147741204167</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.95828176506716</v>
+        <v>18.69040908188028</v>
       </c>
       <c r="C6">
-        <v>9.25639038748761</v>
+        <v>12.93993789731275</v>
       </c>
       <c r="D6">
-        <v>5.774643282633908</v>
+        <v>6.176031051678808</v>
       </c>
       <c r="E6">
-        <v>11.71885840572322</v>
+        <v>7.379878182883055</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.658119499070779</v>
+        <v>2.095806469436856</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.6495554901809</v>
+        <v>15.41808462694054</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.13752643902253</v>
+        <v>6.172708442203202</v>
       </c>
       <c r="M6">
-        <v>14.91546620831558</v>
+        <v>11.26141721528585</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.23760222331737</v>
+        <v>16.89630233573624</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.11781472020784</v>
+        <v>19.15004934053247</v>
       </c>
       <c r="C7">
-        <v>9.367416624508513</v>
+        <v>13.17561755184709</v>
       </c>
       <c r="D7">
-        <v>5.807710796893043</v>
+        <v>6.315372043954922</v>
       </c>
       <c r="E7">
-        <v>11.707930343594</v>
+        <v>7.351333861293162</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.657338050291463</v>
+        <v>2.093791638364067</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.60570209943256</v>
+        <v>15.34403841833404</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.13354291117073</v>
+        <v>6.193914554908358</v>
       </c>
       <c r="M7">
-        <v>14.94691440310883</v>
+        <v>11.44885374333537</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.20906122625679</v>
+        <v>16.93397948281914</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.80579543965894</v>
+        <v>21.06264396680662</v>
       </c>
       <c r="C8">
-        <v>9.8387258132861</v>
+        <v>14.16873772603158</v>
       </c>
       <c r="D8">
-        <v>5.955321570765614</v>
+        <v>6.969071747490608</v>
       </c>
       <c r="E8">
-        <v>11.6622360019664</v>
+        <v>7.229621505812125</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.654068678757163</v>
+        <v>2.085167957780197</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.4254542392413</v>
+        <v>15.05432936002721</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.11920290938416</v>
+        <v>6.293538669626344</v>
       </c>
       <c r="M8">
-        <v>15.08950794929404</v>
+        <v>12.24963798161076</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.09901811689219</v>
+        <v>17.14494417599245</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.08491650633286</v>
+        <v>24.40364410787132</v>
       </c>
       <c r="C9">
-        <v>10.69056312661674</v>
+        <v>15.94260418013201</v>
       </c>
       <c r="D9">
-        <v>6.247986451092766</v>
+        <v>8.120337997586839</v>
       </c>
       <c r="E9">
-        <v>11.58166040827935</v>
+        <v>7.005668602092981</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.64829622630393</v>
+        <v>2.069150993800859</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.11988249371866</v>
+        <v>14.63720554505396</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.10270073093371</v>
+        <v>6.510459210786149</v>
       </c>
       <c r="M9">
-        <v>15.38134440892687</v>
+        <v>13.8649883497812</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.94088975133822</v>
+        <v>17.72994597402907</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.97246992059128</v>
+        <v>26.61469546631123</v>
       </c>
       <c r="C10">
-        <v>11.26829737487886</v>
+        <v>17.13750669484038</v>
       </c>
       <c r="D10">
-        <v>6.462465827408871</v>
+        <v>8.889232723259797</v>
       </c>
       <c r="E10">
-        <v>11.52791187538058</v>
+        <v>6.849567592419692</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.644440312957157</v>
+        <v>2.057859771177131</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.9247705782477</v>
+        <v>14.4411516196659</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.09763728174643</v>
+        <v>6.682782491600073</v>
       </c>
       <c r="M10">
-        <v>15.60179783037752</v>
+        <v>15.06880002089645</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.86030190007125</v>
+        <v>18.27246372718115</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.3632216515337</v>
+        <v>27.56906456792795</v>
       </c>
       <c r="C11">
-        <v>11.52000875627908</v>
+        <v>17.65741253757942</v>
       </c>
       <c r="D11">
-        <v>6.559420552482326</v>
+        <v>9.22293886915331</v>
       </c>
       <c r="E11">
-        <v>11.50463205135592</v>
+        <v>6.780261143468898</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.642768863422949</v>
+        <v>2.052810036927343</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.84243492682277</v>
+        <v>14.38031443708453</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.09686075700018</v>
+        <v>6.763948036423859</v>
       </c>
       <c r="M11">
-        <v>15.7030932262767</v>
+        <v>15.58980679575284</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.83145132074812</v>
+        <v>18.54522602203533</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.50920040160874</v>
+        <v>27.92318012175137</v>
       </c>
       <c r="C12">
-        <v>11.61368277814033</v>
+        <v>17.8508906462133</v>
       </c>
       <c r="D12">
-        <v>6.596007443696447</v>
+        <v>9.34704814726082</v>
       </c>
       <c r="E12">
-        <v>11.49598404196276</v>
+        <v>6.754251149476041</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.642147740569034</v>
+        <v>2.050908815364655</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.81218391742416</v>
+        <v>14.36174230848603</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.09678558934846</v>
+        <v>6.795079139995855</v>
       </c>
       <c r="M12">
-        <v>15.74157027951695</v>
+        <v>15.78332660530244</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.82165527337303</v>
+        <v>18.65235310359077</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.4778515662171</v>
+        <v>27.84723703534416</v>
       </c>
       <c r="C13">
-        <v>11.59358218089214</v>
+        <v>17.80937264298501</v>
       </c>
       <c r="D13">
-        <v>6.58813409242177</v>
+        <v>9.32041854837844</v>
       </c>
       <c r="E13">
-        <v>11.49783910588814</v>
+        <v>6.759842590818861</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.642280985835169</v>
+        <v>2.051317812700132</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.81865768400059</v>
+        <v>14.36553714781644</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.09679205469718</v>
+        <v>6.788356956224304</v>
       </c>
       <c r="M13">
-        <v>15.73327870231082</v>
+        <v>15.741815602644</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.823714722364</v>
+        <v>18.62910910646264</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.37527194482076</v>
+        <v>27.59834315685449</v>
       </c>
       <c r="C14">
-        <v>11.52774856094816</v>
+        <v>17.67339814970494</v>
       </c>
       <c r="D14">
-        <v>6.562433357918386</v>
+        <v>9.233194355689452</v>
       </c>
       <c r="E14">
-        <v>11.50391722083731</v>
+        <v>6.778116639413782</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.642717526761683</v>
+        <v>2.052653410586272</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.83992754043042</v>
+        <v>14.37869470496667</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.09685019028582</v>
+        <v>6.76650130178177</v>
       </c>
       <c r="M14">
-        <v>15.70625653022305</v>
+        <v>15.60580310252708</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.83062273359638</v>
+        <v>18.55396194725277</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.31217640404121</v>
+        <v>27.44494347823439</v>
       </c>
       <c r="C15">
-        <v>11.4872082374511</v>
+        <v>17.58966753900149</v>
       </c>
       <c r="D15">
-        <v>6.546673138221331</v>
+        <v>9.179474573644363</v>
       </c>
       <c r="E15">
-        <v>11.50766203916986</v>
+        <v>6.789340293329992</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.642986457993187</v>
+        <v>2.053472890272329</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.85307688616279</v>
+        <v>14.38734750756952</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.09691428389443</v>
+        <v>6.753165496869704</v>
       </c>
       <c r="M15">
-        <v>15.68971933699405</v>
+        <v>15.52200168370493</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.83500129503352</v>
+        <v>18.50843489671758</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.94666109771756</v>
+        <v>26.55129961574151</v>
       </c>
       <c r="C16">
-        <v>11.25161985239027</v>
+        <v>17.10305348644764</v>
       </c>
       <c r="D16">
-        <v>6.456113839469967</v>
+        <v>8.86710533698337</v>
       </c>
       <c r="E16">
-        <v>11.52945675601358</v>
+        <v>6.854130367053562</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.644551203381863</v>
+        <v>2.058191405374378</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.93028099176285</v>
+        <v>14.44573074744121</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.09771869798338</v>
+        <v>6.677533644237308</v>
       </c>
       <c r="M16">
-        <v>15.59519599373305</v>
+        <v>15.03421985199188</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.86234502811605</v>
+        <v>18.25516967378446</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.71900880308203</v>
+        <v>25.9899807620071</v>
       </c>
       <c r="C17">
-        <v>11.10421468458124</v>
+        <v>16.79846940598171</v>
       </c>
       <c r="D17">
-        <v>6.400372800471558</v>
+        <v>8.671397991062394</v>
       </c>
       <c r="E17">
-        <v>11.54312638144559</v>
+        <v>6.894306429918365</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.645532241553826</v>
+        <v>2.061107262953347</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.97929098192538</v>
+        <v>14.48907849741834</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.09860279172828</v>
+        <v>6.631843843942141</v>
       </c>
       <c r="M17">
-        <v>15.53744880627023</v>
+        <v>14.72820085971844</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.88112416453534</v>
+        <v>18.1065273176732</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.58685180394835</v>
+        <v>25.66227515358737</v>
       </c>
       <c r="C18">
-        <v>11.01838844032548</v>
+        <v>16.62105245922134</v>
       </c>
       <c r="D18">
-        <v>6.368256572065334</v>
+        <v>8.557316595604766</v>
       </c>
       <c r="E18">
-        <v>11.55109902230257</v>
+        <v>6.917575735332806</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.646104289508453</v>
+        <v>2.062792642151339</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.00808441404795</v>
+        <v>14.51665474960614</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.09925506032114</v>
+        <v>6.605825627973994</v>
       </c>
       <c r="M18">
-        <v>15.5043308167658</v>
+        <v>14.54967832551519</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.89266014120671</v>
+        <v>18.02347087752811</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.54190054494454</v>
+        <v>25.55048328492135</v>
       </c>
       <c r="C19">
-        <v>10.98915160949851</v>
+        <v>16.56059954569332</v>
       </c>
       <c r="D19">
-        <v>6.357374284820456</v>
+        <v>8.518428719319058</v>
       </c>
       <c r="E19">
-        <v>11.55381737827006</v>
+        <v>6.92548229602757</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.646299313380195</v>
+        <v>2.063364743075497</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.01793701567855</v>
+        <v>14.52643412381581</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.09950061763652</v>
+        <v>6.597061317034328</v>
       </c>
       <c r="M19">
-        <v>15.49313504496849</v>
+        <v>14.48880131556041</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.89669201792774</v>
+        <v>17.9957649441293</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.74336969876295</v>
+        <v>26.05023523779144</v>
       </c>
       <c r="C20">
-        <v>11.12001449281771</v>
+        <v>16.83112353350223</v>
       </c>
       <c r="D20">
-        <v>6.406312562362876</v>
+        <v>8.692387870981978</v>
       </c>
       <c r="E20">
-        <v>11.5416598233911</v>
+        <v>6.890013019440616</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.64542700354186</v>
+        <v>2.060796020795678</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.97401122352495</v>
+        <v>14.48418767691695</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.09849380432254</v>
+        <v>6.63668058133948</v>
       </c>
       <c r="M20">
-        <v>15.54358628062792</v>
+        <v>14.76103636119413</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.87904900732578</v>
+        <v>18.12209737542531</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.40545697961134</v>
+        <v>27.67164604405911</v>
       </c>
       <c r="C21">
-        <v>11.54713044041425</v>
+        <v>17.71342930571398</v>
       </c>
       <c r="D21">
-        <v>6.569986059213504</v>
+        <v>9.258875062532907</v>
       </c>
       <c r="E21">
-        <v>11.50212738996787</v>
+        <v>6.772742818865953</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.642588983846531</v>
+        <v>2.05226082676299</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.83365485550411</v>
+        <v>14.37470562351928</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.09682717976102</v>
+        <v>6.772910127342854</v>
       </c>
       <c r="M21">
-        <v>15.71419058793894</v>
+        <v>15.64585524923031</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.82856299579527</v>
+        <v>18.57592954120321</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.82652116487395</v>
+        <v>28.68893663217652</v>
       </c>
       <c r="C22">
-        <v>11.81667784662421</v>
+        <v>18.2702664689695</v>
       </c>
       <c r="D22">
-        <v>6.676194612325599</v>
+        <v>9.615972550342923</v>
       </c>
       <c r="E22">
-        <v>11.47726693760173</v>
+        <v>6.697463743869648</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.640803034276029</v>
+        <v>2.046745949340672</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.74733334368726</v>
+        <v>14.32937483957167</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.0970134041761</v>
+        <v>6.864248323983838</v>
       </c>
       <c r="M22">
-        <v>15.8263698313622</v>
+        <v>16.20216571910581</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.80215079092499</v>
+        <v>18.89494888456584</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.60289341000153</v>
+        <v>28.1498291253009</v>
       </c>
       <c r="C23">
-        <v>11.67370736768825</v>
+        <v>17.9748791285392</v>
       </c>
       <c r="D23">
-        <v>6.619591325554238</v>
+        <v>9.426566527898917</v>
       </c>
       <c r="E23">
-        <v>11.49044635662605</v>
+        <v>6.737520342956582</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.641749948995544</v>
+        <v>2.049684061561746</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.7929083513909</v>
+        <v>14.35103616524483</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.0967975526048</v>
+        <v>6.815289444018001</v>
       </c>
       <c r="M23">
-        <v>15.76644426461971</v>
+        <v>15.90724357353484</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.81564324872356</v>
+        <v>18.72259894696274</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.73236010501055</v>
+        <v>26.02300975910393</v>
       </c>
       <c r="C24">
-        <v>11.11287476319043</v>
+        <v>16.81636778990982</v>
       </c>
       <c r="D24">
-        <v>6.403627410921155</v>
+        <v>8.682903229925875</v>
       </c>
       <c r="E24">
-        <v>11.54232249977918</v>
+        <v>6.891953535200618</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.645474556609702</v>
+        <v>2.060936705189623</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.97639628082507</v>
+        <v>14.48639057622299</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.09854262895807</v>
+        <v>6.634493115067627</v>
       </c>
       <c r="M24">
-        <v>15.54081127214011</v>
+        <v>14.7461994963755</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.87998488248685</v>
+        <v>18.1150506846765</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.74742625236137</v>
+        <v>23.54304697069192</v>
       </c>
       <c r="C25">
-        <v>10.46831418878282</v>
+        <v>15.48164675946356</v>
       </c>
       <c r="D25">
-        <v>6.168732574883115</v>
+        <v>7.822603960571674</v>
       </c>
       <c r="E25">
-        <v>11.60249714509166</v>
+        <v>7.064731740960539</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.649789889190282</v>
+        <v>2.073395082385185</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.19740069582175</v>
+        <v>14.73206963569092</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.1059231596572</v>
+        <v>6.449486820991744</v>
       </c>
       <c r="M25">
-        <v>15.30123074996484</v>
+        <v>13.39775838197253</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.97744740153568</v>
+        <v>17.55243494912038</v>
       </c>
     </row>
   </sheetData>
